--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_425__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_425__Reeval_LHS_Modell_1.3.xlsx
@@ -5873,16 +5873,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>63.76161956787109</c:v>
+                  <c:v>63.76161193847656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.57676696777344</c:v>
+                  <c:v>70.57675933837891</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54.79615783691406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.83584594726562</c:v>
+                  <c:v>70.83585357666016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.93476104736328</c:v>
@@ -5900,7 +5900,7 @@
                   <c:v>58.57770538330078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.30168914794922</c:v>
+                  <c:v>61.30168151855469</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>65.12949371337891</c:v>
@@ -5912,49 +5912,49 @@
                   <c:v>54.12063598632812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.00627899169922</c:v>
+                  <c:v>76.00628662109375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>64.15349578857422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.64516448974609</c:v>
+                  <c:v>66.64515686035156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.69252777099609</c:v>
+                  <c:v>73.69253540039062</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>66.75980377197266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.99523162841797</c:v>
+                  <c:v>67.99522399902344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.13247680664062</c:v>
+                  <c:v>75.13248443603516</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.42157745361328</c:v>
+                  <c:v>60.42156982421875</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>74.65409088134766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>73.49317169189453</c:v>
+                  <c:v>73.4931640625</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>71.79224395751953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>71.43913269042969</c:v>
+                  <c:v>71.43914794921875</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59.75707244873047</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.07967376708984</c:v>
+                  <c:v>70.07966613769531</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.96021270751953</c:v>
+                  <c:v>70.960205078125</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>61.91927337646484</c:v>
@@ -5966,19 +5966,19 @@
                   <c:v>70.03373718261719</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65.89266204833984</c:v>
+                  <c:v>65.89266967773438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.47575378417969</c:v>
+                  <c:v>74.47574615478516</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64.44248962402344</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>71.87417602539062</c:v>
+                  <c:v>71.87418365478516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.9862060546875</c:v>
+                  <c:v>64.98621368408203</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>73.74545288085938</c:v>
@@ -5993,25 +5993,25 @@
                   <c:v>63.63684844970703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.74481201171875</c:v>
+                  <c:v>68.74480438232422</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>57.31121826171875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>60.74703979492188</c:v>
+                  <c:v>60.74703216552734</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>67.73670196533203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>75.41561126708984</c:v>
+                  <c:v>75.41560363769531</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.52812194824219</c:v>
+                  <c:v>69.52813720703125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.57709503173828</c:v>
+                  <c:v>61.57708740234375</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>56.57473754882812</c:v>
@@ -6020,25 +6020,25 @@
                   <c:v>71.98197937011719</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>67.04547882080078</c:v>
+                  <c:v>67.04547119140625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69.25698852539062</c:v>
+                  <c:v>69.25698089599609</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>68.17111968994141</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.25121688842773</c:v>
+                  <c:v>53.25122451782227</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>74.38414001464844</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.589599609375</c:v>
+                  <c:v>70.58959197998047</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.27387237548828</c:v>
+                  <c:v>68.27386474609375</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>71.96338653564453</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>66.01496887207031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72.16341400146484</c:v>
+                  <c:v>72.16342163085938</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>69.40034484863281</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>56.56931304931641</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.46353149414062</c:v>
+                  <c:v>67.46352386474609</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>58.86368560791016</c:v>
@@ -6074,7 +6074,7 @@
                   <c:v>64.18130493164062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.78489685058594</c:v>
+                  <c:v>68.78488922119141</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>54.72842407226562</c:v>
@@ -6086,28 +6086,28 @@
                   <c:v>69.62419891357422</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73.3922119140625</c:v>
+                  <c:v>73.39220428466797</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>71.04386138916016</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68.22727203369141</c:v>
+                  <c:v>68.22725677490234</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>62.89826202392578</c:v>
+                  <c:v>62.89825439453125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>58.94087219238281</c:v>
+                  <c:v>58.94086456298828</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>66.06686401367188</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>67.65720367431641</c:v>
+                  <c:v>67.65719604492188</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.89639282226562</c:v>
+                  <c:v>71.89638519287109</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>72.06569671630859</c:v>
@@ -6125,10 +6125,10 @@
                   <c:v>67.14728546142578</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>71.60791778564453</c:v>
+                  <c:v>71.60792541503906</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>59.51966094970703</c:v>
+                  <c:v>59.51964569091797</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>67.2939453125</c:v>
@@ -6140,22 +6140,22 @@
                   <c:v>67.02413177490234</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>62.4483642578125</c:v>
+                  <c:v>62.44835662841797</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>59.53457641601562</c:v>
+                  <c:v>59.53459167480469</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>68.21826934814453</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>70.846435546875</c:v>
+                  <c:v>70.84642791748047</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>69.74708557128906</c:v>
+                  <c:v>69.74709320068359</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>65.47225952148438</c:v>
+                  <c:v>65.47226715087891</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>68.65628814697266</c:v>
@@ -6859,7 +6859,7 @@
         <v>73.39830000000001</v>
       </c>
       <c r="F2">
-        <v>63.76161956787109</v>
+        <v>63.76161193847656</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>70.57676696777344</v>
+        <v>70.57675933837891</v>
       </c>
       <c r="G3">
         <v>113</v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>70.83584594726562</v>
+        <v>70.83585357666016</v>
       </c>
       <c r="G5">
         <v>113</v>
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>61.30168914794922</v>
+        <v>61.30168151855469</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>76.00627899169922</v>
+        <v>76.00628662109375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>72.40949999999999</v>
       </c>
       <c r="F17">
-        <v>66.64516448974609</v>
+        <v>66.64515686035156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>87.605</v>
       </c>
       <c r="F18">
-        <v>73.69252777099609</v>
+        <v>73.69253540039062</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>49.1802</v>
       </c>
       <c r="F20">
-        <v>67.99523162841797</v>
+        <v>67.99522399902344</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>75.13247680664062</v>
+        <v>75.13248443603516</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>76.97450000000001</v>
       </c>
       <c r="F22">
-        <v>60.42157745361328</v>
+        <v>60.42156982421875</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>85.872</v>
       </c>
       <c r="F24">
-        <v>73.49317169189453</v>
+        <v>73.4931640625</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>71.43913269042969</v>
+        <v>71.43914794921875</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>70.07967376708984</v>
+        <v>70.07966613769531</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>70.96021270751953</v>
+        <v>70.960205078125</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>65.89266204833984</v>
+        <v>65.89266967773438</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>74.47575378417969</v>
+        <v>74.47574615478516</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>71.87417602539062</v>
+        <v>71.87418365478516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>64.9862060546875</v>
+        <v>64.98621368408203</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>68.74481201171875</v>
+        <v>68.74480438232422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.8982</v>
       </c>
       <c r="F44">
-        <v>60.74703979492188</v>
+        <v>60.74703216552734</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>75.41561126708984</v>
+        <v>75.41560363769531</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>69.52812194824219</v>
+        <v>69.52813720703125</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>61.57709503173828</v>
+        <v>61.57708740234375</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>67.04547882080078</v>
+        <v>67.04547119140625</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>69.25698852539062</v>
+        <v>69.25698089599609</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>53.25121688842773</v>
+        <v>53.25122451782227</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>70.589599609375</v>
+        <v>70.58959197998047</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>86.1382</v>
       </c>
       <c r="F57">
-        <v>68.27387237548828</v>
+        <v>68.27386474609375</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>72.16341400146484</v>
+        <v>72.16342163085938</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>41.32</v>
       </c>
       <c r="F64">
-        <v>67.46353149414062</v>
+        <v>67.46352386474609</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>68.78489685058594</v>
+        <v>68.78488922119141</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>73.3922119140625</v>
+        <v>73.39220428466797</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>68.22727203369141</v>
+        <v>68.22725677490234</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>62.89826202392578</v>
+        <v>62.89825439453125</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>58.94087219238281</v>
+        <v>58.94086456298828</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>67.65720367431641</v>
+        <v>67.65719604492188</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>71.89639282226562</v>
+        <v>71.89638519287109</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>71.60791778564453</v>
+        <v>71.60792541503906</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>59.51966094970703</v>
+        <v>59.51964569091797</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>62.4483642578125</v>
+        <v>62.44835662841797</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>59.53457641601562</v>
+        <v>59.53459167480469</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>70.846435546875</v>
+        <v>70.84642791748047</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>69.74708557128906</v>
+        <v>69.74709320068359</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>65.47225952148438</v>
+        <v>65.47226715087891</v>
       </c>
     </row>
     <row r="97" spans="1:6">
